--- a/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006072</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>民生加银创新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,13 +1327,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,36 +1384,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>006072</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>民生加银创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>83.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3544</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1034,424 +1422,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根领先优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001198</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002163</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>970073</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>970074</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>012526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>广发盛锦混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3544</t>
+          <t>1.0047</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.6017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -712,26 +729,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>012527</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>广发盛锦混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006890</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根领先优选混合</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -816,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001198</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合A</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -854,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002163</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合C</t>
+          <t>上投摩根领先优选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -892,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>970073</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合A</t>
+          <t>天治趋势精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -930,12 +947,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>970074</t>
+          <t>013413</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合C</t>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -945,21 +962,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -968,6 +985,442 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1327,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688196-卓越新能.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,31 +627,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发盛锦混合型证券投资基金A</t>
+          <t>广发盛锦混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0047</t>
+          <t>0.7944</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>012527</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>广发盛锦混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.30</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6017</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>015921</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>申万菱信国证2000指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -719,263 +736,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011172</t>
+          <t>015922</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合C</t>
+          <t>申万菱信国证2000指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.30</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012527</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发盛锦混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006890</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根领先优选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>350007</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天治趋势精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013413</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1041,36 +830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>012526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>广发盛锦混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3544</t>
+          <t>1.0047</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1079,36 +868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.6017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1117,36 +906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1165,26 +954,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1193,36 +982,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>012527</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>广发盛锦混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1231,36 +1020,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006890</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根领先优选混合</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1269,36 +1058,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001198</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合A</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1307,32 +1096,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002163</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方惠新灵活配置混合C</t>
+          <t>上投摩根领先优选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1345,36 +1134,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>970073</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合A</t>
+          <t>天治趋势精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1383,12 +1172,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>970074</t>
+          <t>013413</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东证融汇成长优选混合C</t>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1398,21 +1187,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1421,6 +1210,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1780,7 +2005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
